--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C726CBA-64EC-40F4-BFE1-58FA582BAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627192B-1811-4E2D-9ADE-30778677FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="-3075" windowWidth="13995" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="-3195" windowWidth="18075" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
   <si>
     <t>With Gender &amp; Age</t>
   </si>
@@ -128,7 +128,16 @@
     <t>So, I should remove FIBE from the model first…</t>
   </si>
   <si>
-    <t>An R Package for Reproducible Interactive Analysis and Graphics of Microbiome Census Data</t>
+    <t>DivGroup only</t>
+  </si>
+  <si>
+    <t>contrasts.p.value</t>
+  </si>
+  <si>
+    <t>DivGroup has an effect (p=9.5x10-8)</t>
+  </si>
+  <si>
+    <t>lm.BMI.div &lt;-    lm( BMXBMI ~ DivGroup , data=df)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +158,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -220,19 +236,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,23 +540,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -545,7 +573,7 @@
         <v>29.846620000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -553,7 +581,7 @@
         <v>29.79053</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -561,984 +589,1350 @@
         <v>28.956849999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>27.680150000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30">
+        <f>B3-B6</f>
+        <v>2.1664700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
+        <v>29.846620278330001</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.156511303154861</v>
+      </c>
+      <c r="E13">
+        <v>4034</v>
+      </c>
+      <c r="F13">
+        <v>29.407045882425599</v>
+      </c>
+      <c r="G13">
+        <v>30.286194674234501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>29.790529695024102</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.198884379421125</v>
+      </c>
+      <c r="E14">
+        <v>4034</v>
+      </c>
+      <c r="F14">
+        <v>29.231947157043599</v>
+      </c>
+      <c r="G14">
+        <v>30.3491122330046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18">
+        <v>28.956847545219599</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.35686521129870402</v>
+      </c>
+      <c r="E15">
+        <v>4034</v>
+      </c>
+      <c r="F15">
+        <v>27.9545633234805</v>
+      </c>
+      <c r="G15">
+        <v>29.959131766958802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18">
+        <v>27.680152671755799</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.35413057167955098</v>
+      </c>
+      <c r="E16">
+        <v>4034</v>
+      </c>
+      <c r="F16">
+        <v>26.685548902063001</v>
+      </c>
+      <c r="G16">
+        <v>28.674756441448501</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="21">
+        <v>5.6090583305958799E-2</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.25308256437960802</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4034</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-0.65471185146161603</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.76689301807353405</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.99616045828105004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.88977273311041605</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.38967751673724099</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4034</v>
+      </c>
+      <c r="F18" s="19">
+        <v>-0.20466744829835101</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1.98421291451918</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.102052568739987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2.1664676065742698</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.38717470192836501</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4034</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1.0790567788639001</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3.2538784342846401</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1.6752515130669099E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.83368214980445698</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.40854348044362798</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4034</v>
+      </c>
+      <c r="F20" s="19">
+        <v>-0.313744585496748</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.98110888510566</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.173308476884179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2.1103770232683199</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.40615693786492302</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4034</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.96965308189437405</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3.2511009646422599</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1.3042133774066E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1.2766948734638599</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.50275365819987095</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4034</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-0.135328610701407</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.6887183576291198</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5.4210683908018101E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
         <v>29.872338871594401</v>
       </c>
-      <c r="D14">
+      <c r="D29">
         <v>0.15600369759344199</v>
       </c>
-      <c r="E14">
+      <c r="E29">
         <v>4032</v>
       </c>
-      <c r="F14">
+      <c r="F29">
         <v>29.434190006475099</v>
       </c>
-      <c r="G14">
+      <c r="G29">
         <v>30.3104877367137</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7">
         <v>29.718569911237399</v>
       </c>
-      <c r="D15">
+      <c r="D30">
         <v>0.198341948851047</v>
       </c>
-      <c r="E15">
+      <c r="E30">
         <v>4032</v>
       </c>
-      <c r="F15">
+      <c r="F30">
         <v>29.161510680365101</v>
       </c>
-      <c r="G15">
+      <c r="G30">
         <v>30.2756291421097</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="7">
         <v>28.869564928121999</v>
       </c>
-      <c r="D16">
+      <c r="D31">
         <v>0.35557298302249701</v>
       </c>
-      <c r="E16">
+      <c r="E31">
         <v>4032</v>
       </c>
-      <c r="F16">
+      <c r="F31">
         <v>27.870909759163101</v>
       </c>
-      <c r="G16">
+      <c r="G31">
         <v>29.868220097080901</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7">
         <v>27.584356636317001</v>
       </c>
-      <c r="D17">
+      <c r="D32">
         <v>0.35289546753138401</v>
       </c>
-      <c r="E17">
+      <c r="E32">
         <v>4032</v>
       </c>
-      <c r="F17">
+      <c r="F32">
         <v>26.5932214838184</v>
       </c>
-      <c r="G17">
+      <c r="G32">
         <v>28.575491788815601</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C33" s="6">
         <v>0.15376896035697901</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D33" s="5">
         <v>0.252525293569419</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E33" s="5">
         <v>4032</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F33" s="5">
         <v>-0.555468528870392</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G33" s="5">
         <v>0.86300644958434902</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="H33" s="5">
+        <v>0.92927854047506198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C34" s="7">
         <v>1.0027739434723499</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D34">
         <v>0.38838708337040201</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E34">
         <v>4032</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F34">
         <v>-8.8042251469488103E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G34">
         <v>2.0935901384141902</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="H34" s="19">
+        <v>4.8457582728336397E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C35" s="17">
         <v>2.28798223527741</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D35">
         <v>0.38601213397769502</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E35">
         <v>4032</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F35">
         <v>1.2038362757029499</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G35">
         <v>3.37212819485186</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="H35" s="20">
+        <v>4.7010972670236102E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C36" s="7">
         <v>0.84900498311537298</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D36">
         <v>0.40674319562320099</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E36">
         <v>4032</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F36">
         <v>-0.29336582159300301</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G36">
         <v>1.9913757878237499</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="H36" s="19">
+        <v>0.15736401813704501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C37" s="7">
         <v>2.1342132749204299</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D37">
         <v>0.40436812373838699</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E37">
         <v>4032</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F37">
         <v>0.99851304960831699</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G37">
         <v>3.2699135002325401</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="H37" s="20">
+        <v>8.4939233779834901E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C38" s="8">
         <v>1.28520829180505</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D38" s="4">
         <v>0.50053071153933204</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E38" s="4">
         <v>4032</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F38" s="4">
         <v>-0.12057225443459001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G38" s="4">
         <v>2.6909888380446998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="H38" s="4">
+        <v>5.0320629345995099E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B41" s="6">
         <v>29.872338871594401</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B42" s="7">
         <v>29.718569911237399</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B43" s="7">
         <v>28.869564928121999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B44" s="8">
         <v>27.584356636317001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1">
         <v>29.7910515448316</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D51" s="1">
         <v>0.16295936987080401</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E51" s="1">
         <v>4031</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F51" s="1">
         <v>29.333367055120799</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G51" s="1">
         <v>30.2487360345424</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1">
         <v>29.743235247367299</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D52" s="1">
         <v>0.198810845099161</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E52" s="1">
         <v>4031</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F52" s="1">
         <v>29.1848590075702</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G52" s="1">
         <v>30.3016114871645</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1">
         <v>29.011232483046999</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D53" s="1">
         <v>0.364890773688064</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E53" s="1">
         <v>4031</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F53" s="1">
         <v>27.986407413534302</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G53" s="1">
         <v>30.036057552559701</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1">
         <v>27.8030315674437</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D54" s="1">
         <v>0.37498813904519102</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E54" s="1">
         <v>4031</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F54" s="1">
         <v>26.749847235652499</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G54" s="1">
         <v>28.856215899234801</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="H54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C55" s="12">
         <v>4.7816297464273197E-2</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D55" s="12">
         <v>0.25986032576763901</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E55" s="12">
         <v>4031</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F55" s="12">
         <v>-0.68202231623021703</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G55" s="12">
         <v>0.77765491115876295</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="14" t="s">
+      <c r="H55" s="12">
+        <v>0.99779004694154005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C56" s="1">
         <v>0.77981906178459004</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D56" s="1">
         <v>0.40932951610801299</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E56" s="1">
         <v>4031</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F56" s="1">
         <v>-0.369815788006365</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G56" s="1">
         <v>1.92945391157554</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="14" t="s">
+      <c r="H56" s="27">
+        <v>0.225969683658194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C57" s="1">
         <v>1.9880199773879299</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D57" s="1">
         <v>0.42344449246624</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E57" s="1">
         <v>4031</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F57" s="1">
         <v>0.79874208186774398</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G57" s="1">
         <v>3.1772978729081101</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="H57" s="28">
+        <v>1.63992630128895E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C58" s="1">
         <v>0.73200276432031697</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D58" s="1">
         <v>0.41228693451014098</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E58" s="1">
         <v>4031</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F58" s="1">
         <v>-0.425938232784</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G58" s="1">
         <v>1.8899437614246299</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="H58" s="27">
+        <v>0.28531778896501803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C59" s="1">
         <v>1.9402036799236599</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D59" s="1">
         <v>0.41968980347545898</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E59" s="1">
         <v>4031</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F59" s="1">
         <v>0.76147113025336499</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G59" s="1">
         <v>3.1189362295939498</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="H59" s="28">
+        <v>2.31722023751324E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C60" s="13">
         <v>1.20820091560334</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D60" s="13">
         <v>0.502405079008583</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E60" s="13">
         <v>4031</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F60" s="13">
         <v>-0.202844134438529</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G60" s="13">
         <v>2.6192459656452098</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="H60" s="13">
+        <v>7.6303039283176902E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B63" s="14">
         <v>29.7910515448316</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B64" s="15">
         <v>29.743235247367299</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B65" s="15">
         <v>29.011232483046999</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B66" s="16">
         <v>27.8030315674437</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>3</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="3">
         <v>30.0011617016063</v>
       </c>
-      <c r="D62">
+      <c r="D73">
         <v>0.15836867981567801</v>
       </c>
-      <c r="E62">
+      <c r="E73">
         <v>4031</v>
       </c>
-      <c r="F62">
+      <c r="F73">
         <v>29.556370533936299</v>
       </c>
-      <c r="G62">
+      <c r="G73">
         <v>30.445952869276301</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>4</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3">
         <v>29.653172109570601</v>
       </c>
-      <c r="D63">
+      <c r="D74">
         <v>0.198445694148628</v>
       </c>
-      <c r="E63">
+      <c r="E74">
         <v>4031</v>
       </c>
-      <c r="F63">
+      <c r="F74">
         <v>29.095821425570499</v>
       </c>
-      <c r="G63">
+      <c r="G74">
         <v>30.2105227935706</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>5</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3">
         <v>28.642122933686501</v>
       </c>
-      <c r="D64">
+      <c r="D75">
         <v>0.35849632934791598</v>
       </c>
-      <c r="E64">
+      <c r="E75">
         <v>4031</v>
       </c>
-      <c r="F64">
+      <c r="F75">
         <v>27.635257175118198</v>
       </c>
-      <c r="G64">
+      <c r="G75">
         <v>29.6489886922548</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="3">
         <v>27.2805720762696</v>
       </c>
-      <c r="D65">
+      <c r="D76">
         <v>0.358774030997143</v>
       </c>
-      <c r="E65">
+      <c r="E76">
         <v>4031</v>
       </c>
-      <c r="F65">
+      <c r="F76">
         <v>26.2729263702964</v>
       </c>
-      <c r="G65">
+      <c r="G76">
         <v>28.2882177822427</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C77" s="6">
         <v>0.34798959203575602</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D77" s="5">
         <v>0.25577439991958301</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E77" s="5">
         <v>4031</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F77" s="5">
         <v>-0.37037337046883201</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G77" s="5">
         <v>1.0663525545403401</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="H77" s="5">
+        <v>0.52433070363518097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C78" s="7">
         <v>1.3590387679198099</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D78">
         <v>0.39584267376691901</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E78">
         <v>4031</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F78">
         <v>0.247282798978642</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G78">
         <v>2.4707947368609702</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="H78" s="19">
+        <v>3.37251834449548E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C79" s="17">
         <v>2.7205896253367401</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D79">
         <v>0.39744252383407103</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E79">
         <v>4031</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F79">
         <v>1.6043403488786301</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G79">
         <v>3.8368389017948599</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="10" t="s">
+      <c r="H79" s="20">
+        <v>2.6992986956741999E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C80" s="7">
         <v>1.0110491758840501</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D80">
         <v>0.40747875625855801</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E80">
         <v>4031</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F80">
         <v>-0.13338766609706501</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G80">
         <v>2.15548601786517</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="10" t="s">
+      <c r="H80" s="19">
+        <v>6.3002574205194201E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C81" s="7">
         <v>2.3726000333009898</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D81">
         <v>0.40705623107458599</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E81">
         <v>4031</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F81">
         <v>1.22934988726359</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G81">
         <v>3.5158501793383898</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="H81" s="20">
+        <v>6.3040251352397494E-8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C82" s="8">
         <v>1.3615508574169299</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D82" s="4">
         <v>0.49969108245162902</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E82" s="4">
         <v>4031</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F82" s="4">
         <v>-4.1871715131120098E-2</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G82" s="4">
         <v>2.7649734299649902</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="H82" s="4">
+        <v>3.2738169343863997E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B85" s="6">
         <v>30.0011617016063</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B86" s="7">
         <v>29.653172109570601</v>
       </c>
-      <c r="F75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B87" s="7">
         <v>28.642122933686501</v>
       </c>
-      <c r="F76" t="str">
-        <f>LOWER(F75)</f>
-        <v>an r package for reproducible interactive analysis and graphics of microbiome census data</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B88" s="8">
         <v>27.2805720762696</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627192B-1811-4E2D-9ADE-30778677FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CDC0F2-79D3-4460-87B2-7D66DC5C59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-3195" windowWidth="18075" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="-2220" windowWidth="16995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,16 +245,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
@@ -596,11 +592,11 @@
       <c r="B6" s="8">
         <v>27.680150000000001</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26">
         <f>B3-B6</f>
         <v>2.1664700000000003</v>
       </c>
@@ -735,7 +731,7 @@
       <c r="G16">
         <v>28.674756441448501</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -746,10 +742,10 @@
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>5.6090583305958799E-2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0.25308256437960802</v>
       </c>
       <c r="E17" s="5">
@@ -766,106 +762,106 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>0.88977273311041605</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>0.38967751673724099</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18">
         <v>4034</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18">
         <v>-0.20466744829835101</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18">
         <v>1.98421291451918</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18">
         <v>0.102052568739987</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="21">
         <v>2.1664676065742698</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="18">
         <v>0.38717470192836501</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19">
         <v>4034</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19">
         <v>1.0790567788639001</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19">
         <v>3.2538784342846401</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="22">
         <v>1.6752515130669099E-7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>0.83368214980445698</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="18">
         <v>0.40854348044362798</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20">
         <v>4034</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20">
         <v>-0.313744585496748</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20">
         <v>1.98110888510566</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20">
         <v>0.173308476884179</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>2.1103770232683199</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="18">
         <v>0.40615693786492302</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21">
         <v>4034</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21">
         <v>0.96965308189437405</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21">
         <v>3.2511009646422599</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>1.3042133774066E-6</v>
       </c>
     </row>
@@ -876,10 +872,10 @@
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="23">
         <v>1.2766948734638599</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <v>0.50275365819987095</v>
       </c>
       <c r="E22" s="4">
@@ -1076,7 +1072,7 @@
       <c r="G34">
         <v>2.0935901384141902</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34">
         <v>4.8457582728336397E-2</v>
       </c>
     </row>
@@ -1102,7 +1098,7 @@
       <c r="G35">
         <v>3.37212819485186</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>4.7010972670236102E-8</v>
       </c>
     </row>
@@ -1128,7 +1124,7 @@
       <c r="G36">
         <v>1.9913757878237499</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36">
         <v>0.15736401813704501</v>
       </c>
     </row>
@@ -1154,7 +1150,7 @@
       <c r="G37">
         <v>3.2699135002325401</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>8.4939233779834901E-7</v>
       </c>
     </row>
@@ -1414,7 +1410,7 @@
       <c r="G56" s="1">
         <v>1.92945391157554</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="1">
         <v>0.225969683658194</v>
       </c>
     </row>
@@ -1440,7 +1436,7 @@
       <c r="G57" s="1">
         <v>3.1772978729081101</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="24">
         <v>1.63992630128895E-5</v>
       </c>
     </row>
@@ -1466,7 +1462,7 @@
       <c r="G58" s="1">
         <v>1.8899437614246299</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="1">
         <v>0.28531778896501803</v>
       </c>
     </row>
@@ -1492,7 +1488,7 @@
       <c r="G59" s="1">
         <v>3.1189362295939498</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="24">
         <v>2.31722023751324E-5</v>
       </c>
     </row>
@@ -1783,7 +1779,7 @@
       <c r="G78">
         <v>2.4707947368609702</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78">
         <v>3.37251834449548E-3</v>
       </c>
     </row>
@@ -1809,7 +1805,7 @@
       <c r="G79">
         <v>3.8368389017948599</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="19">
         <v>2.6992986956741999E-8</v>
       </c>
     </row>
@@ -1835,7 +1831,7 @@
       <c r="G80">
         <v>2.15548601786517</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80">
         <v>6.3002574205194201E-2</v>
       </c>
     </row>
@@ -1861,7 +1857,7 @@
       <c r="G81">
         <v>3.5158501793383898</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>6.3040251352397494E-8</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CDC0F2-79D3-4460-87B2-7D66DC5C59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1232522-0A21-4439-BEA2-B4D232811144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="-2220" windowWidth="16995" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33615" yWindow="-3285" windowWidth="15615" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t>With Gender &amp; Age</t>
   </si>
@@ -138,6 +138,75 @@
   </si>
   <si>
     <t>lm.BMI.div &lt;-    lm( BMXBMI ~ DivGroup , data=df)</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>RIDAGEYR</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FIBE</t>
+  </si>
+  <si>
+    <t>PF_TOTAL_LEG</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + FIBE + PF_TOTAL_LEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lm.BMI.agkfp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>KCAL</t>
+  </si>
+  <si>
+    <t>Only the Div2 group has less BMI.</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + KCAL + FIBE/1000kcal + PF_TOTAL_LEG</t>
+  </si>
+  <si>
+    <t>lm.BMI.agkf1000kcalp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>FIBE1000kcal</t>
+  </si>
+  <si>
+    <t>KCAL does not have an effect.</t>
+  </si>
+  <si>
+    <t>lm.BMI.agf1000p &lt;-  lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>Since KCAL was not significant, remove KCAL and only have FIBE/1000kcal.</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + FIBE/1000kcal + PF_TOTAL_LEG.</t>
+  </si>
+  <si>
+    <t>(whether KCAL is in the model or not, the differencs are almost the same.)</t>
   </si>
 </sst>
 </file>
@@ -170,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,6 +331,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,8 +2013,1325 @@
         <v>27.2805720762696</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+    <row r="90" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="5">
+        <v>173394.32642757901</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>3577.7100117251598</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="30">
+        <v>1229.91020647704</v>
+      </c>
+      <c r="D95" s="30">
+        <v>3</v>
+      </c>
+      <c r="E95" s="30">
+        <v>8.4590658181535705</v>
+      </c>
+      <c r="F95" s="31">
+        <v>1.33587568722812E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="30">
+        <v>1126.4683619355501</v>
+      </c>
+      <c r="D96" s="30">
+        <v>1</v>
+      </c>
+      <c r="E96" s="30">
+        <v>23.2428431738321</v>
+      </c>
+      <c r="F96" s="31">
+        <v>1.4804757845087101E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="30">
+        <v>1692.65931154805</v>
+      </c>
+      <c r="D97" s="30">
+        <v>1</v>
+      </c>
+      <c r="E97" s="30">
+        <v>34.925272874453697</v>
+      </c>
+      <c r="F97" s="31">
+        <v>3.7096045079151402E-9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="30">
+        <v>360.61881810089102</v>
+      </c>
+      <c r="D98" s="30">
+        <v>1</v>
+      </c>
+      <c r="E98" s="30">
+        <v>7.4407829974467203</v>
+      </c>
+      <c r="F98" s="30">
+        <v>6.4038556831210996E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="30">
+        <v>687.26574787622701</v>
+      </c>
+      <c r="D99" s="30">
+        <v>1</v>
+      </c>
+      <c r="E99" s="30">
+        <v>14.1806113126749</v>
+      </c>
+      <c r="F99" s="31">
+        <v>1.68442332966143E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="4">
+        <v>549.43279797956302</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>11.3366524880078</v>
+      </c>
+      <c r="F100" s="4">
+        <v>7.6704445822843202E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101">
+        <v>195266.17274379</v>
+      </c>
+      <c r="D101">
+        <v>4029</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="7">
+        <v>29.8158820721452</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.165388150170237</v>
+      </c>
+      <c r="E104">
+        <v>4029</v>
+      </c>
+      <c r="F104">
+        <v>29.351376030686399</v>
+      </c>
+      <c r="G104">
+        <v>30.280388113604001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="7">
+        <v>29.702502184770001</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.198542242794323</v>
+      </c>
+      <c r="E105">
+        <v>4029</v>
+      </c>
+      <c r="F105">
+        <v>29.1448801836301</v>
+      </c>
+      <c r="G105">
+        <v>30.260124185909799</v>
+      </c>
+      <c r="O105" s="19"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="7">
+        <v>28.9501659359195</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.36713889869284899</v>
+      </c>
+      <c r="E106">
+        <v>4029</v>
+      </c>
+      <c r="F106">
+        <v>27.919026544603899</v>
+      </c>
+      <c r="G106">
+        <v>29.981305327234999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="7">
+        <v>27.751457937686599</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.37989629872422298</v>
+      </c>
+      <c r="E107">
+        <v>4029</v>
+      </c>
+      <c r="F107">
+        <v>26.6844883530846</v>
+      </c>
+      <c r="G107">
+        <v>28.818427522288601</v>
+      </c>
+      <c r="H107" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="19"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.11337988737527301</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0.26265376580864702</v>
+      </c>
+      <c r="E108" s="5">
+        <v>4029</v>
+      </c>
+      <c r="F108" s="5">
+        <v>-0.62430452897760802</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.851064303728154</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0.97304110911001496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="32">
+        <v>0.86571613622576604</v>
+      </c>
+      <c r="D109" s="32">
+        <v>0.41611969627331902</v>
+      </c>
+      <c r="E109" s="30">
+        <v>4029</v>
+      </c>
+      <c r="F109" s="30">
+        <v>-0.30298980002171699</v>
+      </c>
+      <c r="G109" s="30">
+        <v>2.0344220724732498</v>
+      </c>
+      <c r="H109" s="30">
+        <v>0.159641491939227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="34">
+        <v>2.06442413445864</v>
+      </c>
+      <c r="D110" s="34">
+        <v>0.43365443768461098</v>
+      </c>
+      <c r="E110" s="33">
+        <v>4029</v>
+      </c>
+      <c r="F110" s="33">
+        <v>0.84647045396479204</v>
+      </c>
+      <c r="G110" s="33">
+        <v>3.28237781495248</v>
+      </c>
+      <c r="H110" s="35">
+        <v>1.19113636321E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="32">
+        <v>0.75233624885049299</v>
+      </c>
+      <c r="D111" s="32">
+        <v>0.412594150640056</v>
+      </c>
+      <c r="E111" s="30">
+        <v>4029</v>
+      </c>
+      <c r="F111" s="30">
+        <v>-0.40646790637819602</v>
+      </c>
+      <c r="G111" s="30">
+        <v>1.91114040407918</v>
+      </c>
+      <c r="H111" s="30">
+        <v>0.26235552181126198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="34">
+        <v>1.95104424708336</v>
+      </c>
+      <c r="D112" s="34">
+        <v>0.42198293623330801</v>
+      </c>
+      <c r="E112" s="33">
+        <v>4029</v>
+      </c>
+      <c r="F112" s="33">
+        <v>0.76587092559011605</v>
+      </c>
+      <c r="G112" s="33">
+        <v>3.13621756857661</v>
+      </c>
+      <c r="H112" s="35">
+        <v>2.3109746138505499E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="8">
+        <v>1.1987079982328701</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0.50088744345802405</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4029</v>
+      </c>
+      <c r="F113" s="4">
+        <v>-0.20807503511991299</v>
+      </c>
+      <c r="G113" s="4">
+        <v>2.6054910315856499</v>
+      </c>
+      <c r="H113" s="4">
+        <v>7.8521659439585001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="5">
+        <v>135698.070127788</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>2798.20188080239</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="30">
+        <v>1350.05398575412</v>
+      </c>
+      <c r="D122" s="30">
+        <v>3</v>
+      </c>
+      <c r="E122" s="30">
+        <v>9.2797281458864393</v>
+      </c>
+      <c r="F122" s="31">
+        <v>4.1045885631584203E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="30">
+        <v>1128.5468895439999</v>
+      </c>
+      <c r="D123" s="30">
+        <v>1</v>
+      </c>
+      <c r="E123" s="30">
+        <v>23.2715323506213</v>
+      </c>
+      <c r="F123" s="31">
+        <v>1.45868048411455E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="30">
+        <v>1718.89440877119</v>
+      </c>
+      <c r="D124" s="30">
+        <v>1</v>
+      </c>
+      <c r="E124" s="30">
+        <v>35.444966630658698</v>
+      </c>
+      <c r="F124" s="31">
+        <v>2.8473154852789101E-9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="36">
+        <v>8.8032639973971492</v>
+      </c>
+      <c r="D125" s="36">
+        <v>1</v>
+      </c>
+      <c r="E125" s="36">
+        <v>0.18153028890918799</v>
+      </c>
+      <c r="F125" s="36">
+        <v>0.67008417924574903</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="30">
+        <v>568.13470219029102</v>
+      </c>
+      <c r="D126" s="30">
+        <v>1</v>
+      </c>
+      <c r="E126" s="30">
+        <v>11.715388367136599</v>
+      </c>
+      <c r="F126" s="30">
+        <v>6.26030598689127E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="4">
+        <v>532.416991618113</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>10.9788608335696</v>
+      </c>
+      <c r="F127" s="4">
+        <v>9.2970822173877199E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="2">
+        <v>195385.30378947599</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4029</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="7">
+        <v>29.835689344532199</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0.16516385786479101</v>
+      </c>
+      <c r="E132">
+        <v>4029</v>
+      </c>
+      <c r="F132">
+        <v>29.371813246215201</v>
+      </c>
+      <c r="G132">
+        <v>30.2995654428492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="7">
+        <v>29.701106182541398</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0.19866265007072501</v>
+      </c>
+      <c r="E133">
+        <v>4029</v>
+      </c>
+      <c r="F133">
+        <v>29.1431460077944</v>
+      </c>
+      <c r="G133">
+        <v>30.259066357288301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="7">
+        <v>28.916978783940898</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0.36691452133668201</v>
+      </c>
+      <c r="E134">
+        <v>4029</v>
+      </c>
+      <c r="F134">
+        <v>27.886469574639001</v>
+      </c>
+      <c r="G134">
+        <v>29.947487993242898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="7">
+        <v>27.684260117670298</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0.37773994559609397</v>
+      </c>
+      <c r="E135">
+        <v>4029</v>
+      </c>
+      <c r="F135">
+        <v>26.623346825822701</v>
+      </c>
+      <c r="G135">
+        <v>28.7451734095179</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0.134583161990806</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0.26272000665099199</v>
+      </c>
+      <c r="E136" s="5">
+        <v>4029</v>
+      </c>
+      <c r="F136" s="5">
+        <v>-0.60328729714342899</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0.87245362112504099</v>
+      </c>
+      <c r="H136" s="5">
+        <v>0.95619103739274902</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="32">
+        <v>0.91871056059127398</v>
+      </c>
+      <c r="D137" s="32">
+        <v>0.41548027566217399</v>
+      </c>
+      <c r="E137" s="30">
+        <v>4029</v>
+      </c>
+      <c r="F137" s="30">
+        <v>-0.24819951097905801</v>
+      </c>
+      <c r="G137" s="30">
+        <v>2.0856206321616102</v>
+      </c>
+      <c r="H137" s="30">
+        <v>0.12031598076364799</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="34">
+        <v>2.1514292268618598</v>
+      </c>
+      <c r="D138" s="34">
+        <v>0.43064337847734102</v>
+      </c>
+      <c r="E138" s="33">
+        <v>4029</v>
+      </c>
+      <c r="F138" s="33">
+        <v>0.94193235050741198</v>
+      </c>
+      <c r="G138" s="33">
+        <v>3.3609261032163</v>
+      </c>
+      <c r="H138" s="35">
+        <v>3.6688143882912502E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="32">
+        <v>0.78412739860046798</v>
+      </c>
+      <c r="D139" s="32">
+        <v>0.412324697518134</v>
+      </c>
+      <c r="E139" s="30">
+        <v>4029</v>
+      </c>
+      <c r="F139" s="30">
+        <v>-0.37391997566843499</v>
+      </c>
+      <c r="G139" s="30">
+        <v>1.9421747728693699</v>
+      </c>
+      <c r="H139" s="30">
+        <v>0.22741063701004899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="34">
+        <v>2.01684606487105</v>
+      </c>
+      <c r="D140" s="34">
+        <v>0.42005912147871599</v>
+      </c>
+      <c r="E140" s="33">
+        <v>4029</v>
+      </c>
+      <c r="F140" s="33">
+        <v>0.83707593323896301</v>
+      </c>
+      <c r="G140" s="33">
+        <v>3.1966161965031401</v>
+      </c>
+      <c r="H140" s="35">
+        <v>9.7447760736279997E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1.23271866627058</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.50058167916201701</v>
+      </c>
+      <c r="E141" s="4">
+        <v>4029</v>
+      </c>
+      <c r="F141" s="4">
+        <v>-0.17320560324324499</v>
+      </c>
+      <c r="G141" s="4">
+        <v>2.6386429357844099</v>
+      </c>
+      <c r="H141" s="4">
+        <v>6.6060523688213205E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150">
+        <v>209663.11143709501</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>4324.2979628871599</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>1341.2627502274399</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>9.2211734955024607</v>
+      </c>
+      <c r="F151" s="19">
+        <v>4.4655348400988801E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152">
+        <v>1120.79821401357</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>23.116443328757001</v>
+      </c>
+      <c r="F152" s="19">
+        <v>1.5804472494778E-6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153">
+        <v>1776.2242999795999</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>36.634594752434403</v>
+      </c>
+      <c r="F153" s="19">
+        <v>1.5546718618969799E-9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154">
+        <v>615.42158317624103</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>12.693059261615799</v>
+      </c>
+      <c r="F154">
+        <v>3.7126361327286802E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155">
+        <v>746.90527651924594</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>15.4049081098889</v>
+      </c>
+      <c r="F155" s="19">
+        <v>8.8210645710651802E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" s="2">
+        <v>195394.107053474</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4030</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="7">
+        <v>29.833039894761601</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.165029993120519</v>
+      </c>
+      <c r="E159">
+        <v>4030</v>
+      </c>
+      <c r="F159">
+        <v>29.3695398298408</v>
+      </c>
+      <c r="G159">
+        <v>30.296539959682399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="7">
+        <v>29.701989237987501</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.198631664864556</v>
+      </c>
+      <c r="E160">
+        <v>4030</v>
+      </c>
+      <c r="F160">
+        <v>29.1441161640135</v>
+      </c>
+      <c r="G160">
+        <v>30.259862311961498</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="7">
+        <v>28.923320343383399</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0.36657527711677601</v>
+      </c>
+      <c r="E161">
+        <v>4030</v>
+      </c>
+      <c r="F161">
+        <v>27.8937640698283</v>
+      </c>
+      <c r="G161">
+        <v>29.9528766169385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="7">
+        <v>27.695775047685299</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.37673361200355499</v>
+      </c>
+      <c r="E162">
+        <v>4030</v>
+      </c>
+      <c r="F162">
+        <v>26.637688270126102</v>
+      </c>
+      <c r="G162">
+        <v>28.7538618252444</v>
+      </c>
+      <c r="H162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="6">
+        <v>0.13105065677410299</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0.262562481742945</v>
+      </c>
+      <c r="E163" s="5">
+        <v>4030</v>
+      </c>
+      <c r="F163" s="5">
+        <v>-0.60637728000553504</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0.86847859355374102</v>
+      </c>
+      <c r="H163" s="5">
+        <v>0.95927959727759204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="32">
+        <v>0.90971955137817895</v>
+      </c>
+      <c r="D164" s="32">
+        <v>0.41490188662252098</v>
+      </c>
+      <c r="E164" s="30">
+        <v>4030</v>
+      </c>
+      <c r="F164" s="30">
+        <v>-0.25556590824650299</v>
+      </c>
+      <c r="G164" s="30">
+        <v>2.0750050110028599</v>
+      </c>
+      <c r="H164" s="30">
+        <v>0.12540499163844401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="34">
+        <v>2.13726484707635</v>
+      </c>
+      <c r="D165" s="34">
+        <v>0.42931464708601302</v>
+      </c>
+      <c r="E165" s="33">
+        <v>4030</v>
+      </c>
+      <c r="F165" s="33">
+        <v>0.93149998559143699</v>
+      </c>
+      <c r="G165" s="33">
+        <v>3.3430297085612599</v>
+      </c>
+      <c r="H165" s="35">
+        <v>4.0116384294464103E-6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="32">
+        <v>0.77866889460407496</v>
+      </c>
+      <c r="D166" s="32">
+        <v>0.41208376245550199</v>
+      </c>
+      <c r="E166" s="30">
+        <v>4030</v>
+      </c>
+      <c r="F166" s="30">
+        <v>-0.37870163568158599</v>
+      </c>
+      <c r="G166" s="30">
+        <v>1.9360394248897399</v>
+      </c>
+      <c r="H166" s="30">
+        <v>0.23261728141464599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="34">
+        <v>2.0062141903022499</v>
+      </c>
+      <c r="D167" s="34">
+        <v>0.41927469272607698</v>
+      </c>
+      <c r="E167" s="33">
+        <v>4030</v>
+      </c>
+      <c r="F167" s="33">
+        <v>0.82864735155029201</v>
+      </c>
+      <c r="G167" s="33">
+        <v>3.1837810290542001</v>
+      </c>
+      <c r="H167" s="35">
+        <v>1.0564120906719801E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="38">
+        <v>1.2275452956981701</v>
+      </c>
+      <c r="D168" s="38">
+        <v>0.50038357442089398</v>
+      </c>
+      <c r="E168" s="37">
+        <v>4030</v>
+      </c>
+      <c r="F168" s="37">
+        <v>-0.177822388344657</v>
+      </c>
+      <c r="G168" s="37">
+        <v>2.632912979741</v>
+      </c>
+      <c r="H168" s="37">
+        <v>6.7640428055344107E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1232522-0A21-4439-BEA2-B4D232811144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE1764-155D-42C7-91B6-91B605727854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33615" yWindow="-3285" windowWidth="15615" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35400" yWindow="-3120" windowWidth="12645" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
   <si>
     <t>With Gender &amp; Age</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>(whether KCAL is in the model or not, the differencs are almost the same.)</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,13 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -624,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,6 +1717,9 @@
       <c r="G72" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H72" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -1744,6 +1743,9 @@
       <c r="G73">
         <v>30.445952869276301</v>
       </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -1767,6 +1769,9 @@
       <c r="G74">
         <v>30.2105227935706</v>
       </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1790,6 +1795,9 @@
       <c r="G75">
         <v>29.6489886922548</v>
       </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -1814,7 +1822,7 @@
         <v>28.2882177822427</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2056,87 +2064,87 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="30" t="s">
+      <c r="B95" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95">
         <v>1229.91020647704</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95">
         <v>8.4590658181535705</v>
       </c>
-      <c r="F95" s="31">
+      <c r="F95" s="19">
         <v>1.33587568722812E-5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
+      <c r="B96" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96">
         <v>1126.4683619355501</v>
       </c>
-      <c r="D96" s="30">
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96">
         <v>23.2428431738321</v>
       </c>
-      <c r="F96" s="31">
+      <c r="F96" s="19">
         <v>1.4804757845087101E-6</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="30" t="s">
+      <c r="B97" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97">
         <v>1692.65931154805</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97">
         <v>34.925272874453697</v>
       </c>
-      <c r="F97" s="31">
+      <c r="F97" s="19">
         <v>3.7096045079151402E-9</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="30" t="s">
+      <c r="B98" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98">
         <v>360.61881810089102</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98">
         <v>7.4407829974467203</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98">
         <v>6.4038556831210996E-3</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="30" t="s">
+      <c r="B99" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99">
         <v>687.26574787622701</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99">
         <v>14.1806113126749</v>
       </c>
-      <c r="F99" s="31">
+      <c r="F99" s="19">
         <v>1.68442332966143E-4</v>
       </c>
     </row>
@@ -2196,6 +2204,9 @@
       <c r="G103" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H103" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -2219,6 +2230,9 @@
       <c r="G104">
         <v>30.280388113604001</v>
       </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2242,6 +2256,9 @@
       <c r="G105">
         <v>30.260124185909799</v>
       </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
       <c r="O105" s="19"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -2266,6 +2283,9 @@
       <c r="G106">
         <v>29.981305327234999</v>
       </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2290,7 +2310,7 @@
         <v>28.818427522288601</v>
       </c>
       <c r="H107" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="O107" s="19"/>
     </row>
@@ -2321,106 +2341,106 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="30" t="s">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="32">
+      <c r="C109" s="7">
         <v>0.86571613622576604</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="7">
         <v>0.41611969627331902</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109">
         <v>4029</v>
       </c>
-      <c r="F109" s="30">
+      <c r="F109">
         <v>-0.30298980002171699</v>
       </c>
-      <c r="G109" s="30">
+      <c r="G109">
         <v>2.0344220724732498</v>
       </c>
-      <c r="H109" s="30">
+      <c r="H109">
         <v>0.159641491939227</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" s="33" t="s">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="34">
+      <c r="C110" s="17">
         <v>2.06442413445864</v>
       </c>
-      <c r="D110" s="34">
+      <c r="D110" s="17">
         <v>0.43365443768461098</v>
       </c>
-      <c r="E110" s="33">
+      <c r="E110" s="10">
         <v>4029</v>
       </c>
-      <c r="F110" s="33">
+      <c r="F110" s="10">
         <v>0.84647045396479204</v>
       </c>
-      <c r="G110" s="33">
+      <c r="G110" s="10">
         <v>3.28237781495248</v>
       </c>
-      <c r="H110" s="35">
+      <c r="H110" s="22">
         <v>1.19113636321E-5</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="30" t="s">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="32">
+      <c r="C111" s="7">
         <v>0.75233624885049299</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="7">
         <v>0.412594150640056</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111">
         <v>4029</v>
       </c>
-      <c r="F111" s="30">
+      <c r="F111">
         <v>-0.40646790637819602</v>
       </c>
-      <c r="G111" s="30">
+      <c r="G111">
         <v>1.91114040407918</v>
       </c>
-      <c r="H111" s="30">
+      <c r="H111">
         <v>0.26235552181126198</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="33" t="s">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="17">
         <v>1.95104424708336</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="17">
         <v>0.42198293623330801</v>
       </c>
-      <c r="E112" s="33">
+      <c r="E112" s="10">
         <v>4029</v>
       </c>
-      <c r="F112" s="33">
+      <c r="F112" s="10">
         <v>0.76587092559011605</v>
       </c>
-      <c r="G112" s="33">
+      <c r="G112" s="10">
         <v>3.13621756857661</v>
       </c>
-      <c r="H112" s="35">
+      <c r="H112" s="22">
         <v>2.3109746138505499E-5</v>
       </c>
     </row>
@@ -2498,87 +2518,87 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
+      <c r="B122" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="30">
+      <c r="C122">
         <v>1350.05398575412</v>
       </c>
-      <c r="D122" s="30">
+      <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" s="30">
+      <c r="E122">
         <v>9.2797281458864393</v>
       </c>
-      <c r="F122" s="31">
+      <c r="F122" s="19">
         <v>4.1045885631584203E-6</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="30" t="s">
+      <c r="B123" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123">
         <v>1128.5468895439999</v>
       </c>
-      <c r="D123" s="30">
+      <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" s="30">
+      <c r="E123">
         <v>23.2715323506213</v>
       </c>
-      <c r="F123" s="31">
+      <c r="F123" s="19">
         <v>1.45868048411455E-6</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="30" t="s">
+      <c r="B124" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124">
         <v>1718.89440877119</v>
       </c>
-      <c r="D124" s="30">
+      <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" s="30">
+      <c r="E124">
         <v>35.444966630658698</v>
       </c>
-      <c r="F124" s="31">
+      <c r="F124" s="19">
         <v>2.8473154852789101E-9</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C125" s="25">
         <v>8.8032639973971492</v>
       </c>
-      <c r="D125" s="36">
+      <c r="D125" s="25">
         <v>1</v>
       </c>
-      <c r="E125" s="36">
+      <c r="E125" s="25">
         <v>0.18153028890918799</v>
       </c>
-      <c r="F125" s="36">
+      <c r="F125" s="25">
         <v>0.67008417924574903</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="30" t="s">
+      <c r="B126" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="30">
+      <c r="C126">
         <v>568.13470219029102</v>
       </c>
-      <c r="D126" s="30">
+      <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126" s="30">
+      <c r="E126">
         <v>11.715388367136599</v>
       </c>
-      <c r="F126" s="30">
+      <c r="F126">
         <v>6.26030598689127E-4</v>
       </c>
     </row>
@@ -2643,6 +2663,9 @@
       <c r="G131" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H131" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -2666,6 +2689,9 @@
       <c r="G132">
         <v>30.2995654428492</v>
       </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -2689,6 +2715,9 @@
       <c r="G133">
         <v>30.259066357288301</v>
       </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -2712,6 +2741,9 @@
       <c r="G134">
         <v>29.947487993242898</v>
       </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -2735,8 +2767,8 @@
       <c r="G135">
         <v>28.7451734095179</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>31</v>
+      <c r="H135" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,106 +2798,106 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" s="30" t="s">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="32">
+      <c r="C137" s="7">
         <v>0.91871056059127398</v>
       </c>
-      <c r="D137" s="32">
+      <c r="D137" s="7">
         <v>0.41548027566217399</v>
       </c>
-      <c r="E137" s="30">
+      <c r="E137">
         <v>4029</v>
       </c>
-      <c r="F137" s="30">
+      <c r="F137">
         <v>-0.24819951097905801</v>
       </c>
-      <c r="G137" s="30">
+      <c r="G137">
         <v>2.0856206321616102</v>
       </c>
-      <c r="H137" s="30">
+      <c r="H137">
         <v>0.12031598076364799</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="33" t="s">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="34">
+      <c r="C138" s="17">
         <v>2.1514292268618598</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138" s="17">
         <v>0.43064337847734102</v>
       </c>
-      <c r="E138" s="33">
+      <c r="E138" s="10">
         <v>4029</v>
       </c>
-      <c r="F138" s="33">
+      <c r="F138" s="10">
         <v>0.94193235050741198</v>
       </c>
-      <c r="G138" s="33">
+      <c r="G138" s="10">
         <v>3.3609261032163</v>
       </c>
-      <c r="H138" s="35">
+      <c r="H138" s="22">
         <v>3.6688143882912502E-6</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="30" t="s">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="32">
+      <c r="C139" s="7">
         <v>0.78412739860046798</v>
       </c>
-      <c r="D139" s="32">
+      <c r="D139" s="7">
         <v>0.412324697518134</v>
       </c>
-      <c r="E139" s="30">
+      <c r="E139">
         <v>4029</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139">
         <v>-0.37391997566843499</v>
       </c>
-      <c r="G139" s="30">
+      <c r="G139">
         <v>1.9421747728693699</v>
       </c>
-      <c r="H139" s="30">
+      <c r="H139">
         <v>0.22741063701004899</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="33" t="s">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="34">
+      <c r="C140" s="17">
         <v>2.01684606487105</v>
       </c>
-      <c r="D140" s="34">
+      <c r="D140" s="17">
         <v>0.42005912147871599</v>
       </c>
-      <c r="E140" s="33">
+      <c r="E140" s="10">
         <v>4029</v>
       </c>
-      <c r="F140" s="33">
+      <c r="F140" s="10">
         <v>0.83707593323896301</v>
       </c>
-      <c r="G140" s="33">
+      <c r="G140" s="10">
         <v>3.1966161965031401</v>
       </c>
-      <c r="H140" s="35">
+      <c r="H140" s="22">
         <v>9.7447760736279997E-6</v>
       </c>
     </row>
@@ -2900,22 +2932,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
         <v>34</v>
@@ -2930,7 +2962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>38</v>
       </c>
@@ -2947,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +2996,7 @@
         <v>4.4655348400988801E-6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>39</v>
       </c>
@@ -2981,7 +3013,7 @@
         <v>1.5804472494778E-6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>40</v>
       </c>
@@ -2998,7 +3030,7 @@
         <v>1.5546718618969799E-9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>51</v>
       </c>
@@ -3015,7 +3047,7 @@
         <v>3.7126361327286802E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>42</v>
       </c>
@@ -3032,7 +3064,7 @@
         <v>8.8210645710651802E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>43</v>
       </c>
@@ -3049,7 +3081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>2</v>
       </c>
@@ -3071,8 +3103,11 @@
       <c r="G158" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3129,11 @@
       <c r="G159">
         <v>30.296539959682399</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3116,6 +3154,9 @@
       </c>
       <c r="G160">
         <v>30.259862311961498</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -3140,6 +3181,9 @@
       <c r="G161">
         <v>29.9528766169385</v>
       </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -3164,7 +3208,7 @@
         <v>28.7538618252444</v>
       </c>
       <c r="H162" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,106 +3238,106 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="30" t="s">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="32">
+      <c r="C164" s="7">
         <v>0.90971955137817895</v>
       </c>
-      <c r="D164" s="32">
+      <c r="D164" s="7">
         <v>0.41490188662252098</v>
       </c>
-      <c r="E164" s="30">
+      <c r="E164">
         <v>4030</v>
       </c>
-      <c r="F164" s="30">
+      <c r="F164">
         <v>-0.25556590824650299</v>
       </c>
-      <c r="G164" s="30">
+      <c r="G164">
         <v>2.0750050110028599</v>
       </c>
-      <c r="H164" s="30">
+      <c r="H164">
         <v>0.12540499163844401</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="33" t="s">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="34">
+      <c r="C165" s="17">
         <v>2.13726484707635</v>
       </c>
-      <c r="D165" s="34">
+      <c r="D165" s="17">
         <v>0.42931464708601302</v>
       </c>
-      <c r="E165" s="33">
+      <c r="E165" s="10">
         <v>4030</v>
       </c>
-      <c r="F165" s="33">
+      <c r="F165" s="10">
         <v>0.93149998559143699</v>
       </c>
-      <c r="G165" s="33">
+      <c r="G165" s="10">
         <v>3.3430297085612599</v>
       </c>
-      <c r="H165" s="35">
+      <c r="H165" s="22">
         <v>4.0116384294464103E-6</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B166" s="30" t="s">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
         <v>20</v>
       </c>
-      <c r="C166" s="32">
+      <c r="C166" s="7">
         <v>0.77866889460407496</v>
       </c>
-      <c r="D166" s="32">
+      <c r="D166" s="7">
         <v>0.41208376245550199</v>
       </c>
-      <c r="E166" s="30">
+      <c r="E166">
         <v>4030</v>
       </c>
-      <c r="F166" s="30">
+      <c r="F166">
         <v>-0.37870163568158599</v>
       </c>
-      <c r="G166" s="30">
+      <c r="G166">
         <v>1.9360394248897399</v>
       </c>
-      <c r="H166" s="30">
+      <c r="H166">
         <v>0.23261728141464599</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="33" t="s">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C167" s="34">
+      <c r="C167" s="17">
         <v>2.0062141903022499</v>
       </c>
-      <c r="D167" s="34">
+      <c r="D167" s="17">
         <v>0.41927469272607698</v>
       </c>
-      <c r="E167" s="33">
+      <c r="E167" s="10">
         <v>4030</v>
       </c>
-      <c r="F167" s="33">
+      <c r="F167" s="10">
         <v>0.82864735155029201</v>
       </c>
-      <c r="G167" s="33">
+      <c r="G167" s="10">
         <v>3.1837810290542001</v>
       </c>
-      <c r="H167" s="35">
+      <c r="H167" s="22">
         <v>1.0564120906719801E-5</v>
       </c>
     </row>
@@ -3301,25 +3345,25 @@
       <c r="A168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B168" s="37" t="s">
+      <c r="B168" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C168" s="38">
+      <c r="C168" s="31">
         <v>1.2275452956981701</v>
       </c>
-      <c r="D168" s="38">
+      <c r="D168" s="31">
         <v>0.50038357442089398</v>
       </c>
-      <c r="E168" s="37">
+      <c r="E168" s="30">
         <v>4030</v>
       </c>
-      <c r="F168" s="37">
+      <c r="F168" s="30">
         <v>-0.177822388344657</v>
       </c>
-      <c r="G168" s="37">
+      <c r="G168" s="30">
         <v>2.632912979741</v>
       </c>
-      <c r="H168" s="37">
+      <c r="H168" s="30">
         <v>6.7640428055344107E-2</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE1764-155D-42C7-91B6-91B605727854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE0321-28DB-453E-A66E-476703B3152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35400" yWindow="-3120" windowWidth="12645" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30915" yWindow="-3360" windowWidth="18240" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="62">
   <si>
     <t>With Gender &amp; Age</t>
   </si>
@@ -119,12 +119,6 @@
     <t>+ PF</t>
   </si>
   <si>
-    <t xml:space="preserve"> lm.BMI.agtl &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
-    <t>All terms including PF_ToTAL_LEG have an effect.</t>
-  </si>
-  <si>
     <t>So, I should remove FIBE from the model first…</t>
   </si>
   <si>
@@ -164,62 +158,81 @@
     <t>FIBE</t>
   </si>
   <si>
-    <t>PF_TOTAL_LEG</t>
-  </si>
-  <si>
     <t>Residuals</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>BMI ~ DivGroup + Age + Gender + FIBE + PF_TOTAL_LEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lm.BMI.agkfp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>KCAL</t>
   </si>
   <si>
     <t>Only the Div2 group has less BMI.</t>
   </si>
   <si>
-    <t>BMI ~ DivGroup + Age + Gender + KCAL + FIBE/1000kcal + PF_TOTAL_LEG</t>
-  </si>
-  <si>
-    <t>lm.BMI.agkf1000kcalp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>FIBE1000kcal</t>
   </si>
   <si>
     <t>KCAL does not have an effect.</t>
   </si>
   <si>
-    <t>lm.BMI.agf1000p &lt;-  lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>Since KCAL was not significant, remove KCAL and only have FIBE/1000kcal.</t>
   </si>
   <si>
-    <t>BMI ~ DivGroup + Age + Gender + FIBE/1000kcal + PF_TOTAL_LEG.</t>
-  </si>
-  <si>
     <t>(whether KCAL is in the model or not, the differencs are almost the same.)</t>
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>For publication</t>
+  </si>
+  <si>
+    <t>F-value</t>
+  </si>
+  <si>
+    <t>PF_ALL</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Emmean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lm.BMI.agtl &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>All terms including PF_ALL have an effect.</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + FIBE + PF_ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lm.BMI.agkfp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + KCAL + FIBE/1000kcal + PF_ALL</t>
+  </si>
+  <si>
+    <t>lm.BMI.agkf1000kcalp &lt;-    lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>BMI ~ DivGroup + Age + Gender + FIBE/1000kcal + PF_ALL.</t>
+  </si>
+  <si>
+    <t>lm.BMI.agf1000p &lt;-  lm( BMXBMI ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_ALL, data=df)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +250,20 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -338,6 +365,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,16 +683,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,17 +751,17 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,7 +880,7 @@
         <v>28.674756441448501</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,7 +1169,7 @@
         <v>28.575491788815601</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,7 +1385,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,7 +1507,7 @@
         <v>28.856215899234801</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1687,12 +1753,12 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,7 +1995,7 @@
         <v>6.3002574205194201E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +2021,7 @@
         <v>6.3040251352397494E-8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +2047,7 @@
         <v>3.2738169343863997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2063,7 @@
         <v>30.0011617016063</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2071,7 @@
         <v>29.653172109570601</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2079,7 @@
         <v>28.642122933686501</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
@@ -2021,34 +2087,55 @@
         <v>27.2805720762696</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J92" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="J93" s="33"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O93" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C94" s="5">
         <v>173394.32642757901</v>
@@ -2062,8 +2149,27 @@
       <c r="F94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J94" s="33"/>
+      <c r="K94" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="36">
+        <v>173394.32642757901</v>
+      </c>
+      <c r="M94" s="33">
+        <v>1</v>
+      </c>
+      <c r="N94" s="37">
+        <v>3577.7100117251598</v>
+      </c>
+      <c r="O94" s="38" t="str">
+        <f t="shared" ref="O94:O100" si="0">IF(F94&lt;0.0001,"&lt;0.0001",IF(F94&lt;0.001,"&lt;0.001",IF(F94&lt;0.01,"&lt;0.01",ROUND(F94,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -2079,10 +2185,29 @@
       <c r="F95" s="19">
         <v>1.33587568722812E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J95" s="33"/>
+      <c r="K95" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L95" s="36">
+        <v>1229.91020647704</v>
+      </c>
+      <c r="M95" s="33">
+        <v>3</v>
+      </c>
+      <c r="N95" s="37">
+        <v>8.4590658181535705</v>
+      </c>
+      <c r="O95" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>1126.4683619355501</v>
@@ -2096,10 +2221,29 @@
       <c r="F96" s="19">
         <v>1.4804757845087101E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J96" s="33"/>
+      <c r="K96" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L96" s="36">
+        <v>1126.4683619355501</v>
+      </c>
+      <c r="M96" s="33">
+        <v>1</v>
+      </c>
+      <c r="N96" s="37">
+        <v>23.2428431738321</v>
+      </c>
+      <c r="O96" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C97">
         <v>1692.65931154805</v>
@@ -2113,10 +2257,29 @@
       <c r="F97" s="19">
         <v>3.7096045079151402E-9</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J97" s="33"/>
+      <c r="K97" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L97" s="36">
+        <v>1692.65931154805</v>
+      </c>
+      <c r="M97" s="33">
+        <v>1</v>
+      </c>
+      <c r="N97" s="37">
+        <v>34.925272874453697</v>
+      </c>
+      <c r="O97" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C98">
         <v>360.61881810089102</v>
@@ -2130,10 +2293,29 @@
       <c r="F98">
         <v>6.4038556831210996E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J98" s="33"/>
+      <c r="K98" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L98" s="36">
+        <v>360.61881810089102</v>
+      </c>
+      <c r="M98" s="33">
+        <v>1</v>
+      </c>
+      <c r="N98" s="37">
+        <v>7.4407829974467203</v>
+      </c>
+      <c r="O98" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C99">
         <v>687.26574787622701</v>
@@ -2147,10 +2329,29 @@
       <c r="F99" s="19">
         <v>1.68442332966143E-4</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J99" s="33"/>
+      <c r="K99" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="36">
+        <v>687.26574787622701</v>
+      </c>
+      <c r="M99" s="33">
+        <v>1</v>
+      </c>
+      <c r="N99" s="37">
+        <v>14.1806113126749</v>
+      </c>
+      <c r="O99" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C100" s="4">
         <v>549.43279797956302</v>
@@ -2164,10 +2365,29 @@
       <c r="F100" s="4">
         <v>7.6704445822843202E-4</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J100" s="33"/>
+      <c r="K100" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L100" s="36">
+        <v>549.43279797956302</v>
+      </c>
+      <c r="M100" s="33">
+        <v>1</v>
+      </c>
+      <c r="N100" s="37">
+        <v>11.3366524880078</v>
+      </c>
+      <c r="O100" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C101">
         <v>195266.17274379</v>
@@ -2176,13 +2396,41 @@
         <v>4029</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="39">
+        <v>195266.17274379</v>
+      </c>
+      <c r="M101" s="34">
+        <v>4029</v>
+      </c>
+      <c r="N101" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -2205,10 +2453,34 @@
         <v>15</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J103" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L103" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M103" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O103" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P103" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q103" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2233,8 +2505,32 @@
       <c r="H104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J104" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="37">
+        <v>29.8158820721452</v>
+      </c>
+      <c r="M104" s="37">
+        <v>0.165388150170237</v>
+      </c>
+      <c r="N104" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O104" s="37">
+        <v>29.351376030686399</v>
+      </c>
+      <c r="P104" s="37">
+        <v>30.280388113604001</v>
+      </c>
+      <c r="Q104" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2259,9 +2555,32 @@
       <c r="H105" t="s">
         <v>16</v>
       </c>
-      <c r="O105" s="19"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J105" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="37">
+        <v>29.702502184770001</v>
+      </c>
+      <c r="M105" s="37">
+        <v>0.198542242794323</v>
+      </c>
+      <c r="N105" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O105" s="37">
+        <v>29.1448801836301</v>
+      </c>
+      <c r="P105" s="37">
+        <v>30.260124185909799</v>
+      </c>
+      <c r="Q105" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2286,8 +2605,32 @@
       <c r="H106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J106" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K106" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="37">
+        <v>28.9501659359195</v>
+      </c>
+      <c r="M106" s="37">
+        <v>0.36713889869284899</v>
+      </c>
+      <c r="N106" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O106" s="37">
+        <v>27.919026544603899</v>
+      </c>
+      <c r="P106" s="37">
+        <v>29.981305327234999</v>
+      </c>
+      <c r="Q106" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2312,9 +2655,32 @@
       <c r="H107" t="s">
         <v>16</v>
       </c>
-      <c r="O107" s="19"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J107" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="37">
+        <v>27.751457937686599</v>
+      </c>
+      <c r="M107" s="37">
+        <v>0.37989629872422298</v>
+      </c>
+      <c r="N107" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O107" s="37">
+        <v>26.6844883530846</v>
+      </c>
+      <c r="P107" s="37">
+        <v>28.818427522288601</v>
+      </c>
+      <c r="Q107" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>16</v>
       </c>
@@ -2339,8 +2705,33 @@
       <c r="H108" s="5">
         <v>0.97304110911001496</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J108" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="41">
+        <v>0.11337988737527301</v>
+      </c>
+      <c r="M108" s="41">
+        <v>0.26265376580864702</v>
+      </c>
+      <c r="N108" s="40">
+        <v>4029</v>
+      </c>
+      <c r="O108" s="41">
+        <v>-0.62430452897760802</v>
+      </c>
+      <c r="P108" s="41">
+        <v>0.851064303728154</v>
+      </c>
+      <c r="Q108" s="42">
+        <f>IF(H108&lt;0.0001,"&lt;0.0001",IF(H108&lt;0.001,"&lt;0.001",IF(H108&lt;0.01,"&lt;0.01",ROUND(H108,3))))</f>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -2365,8 +2756,33 @@
       <c r="H109">
         <v>0.159641491939227</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J109" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="37">
+        <v>0.86571613622576604</v>
+      </c>
+      <c r="M109" s="37">
+        <v>0.41611969627331902</v>
+      </c>
+      <c r="N109" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O109" s="37">
+        <v>-0.30298980002171699</v>
+      </c>
+      <c r="P109" s="37">
+        <v>2.0344220724732498</v>
+      </c>
+      <c r="Q109" s="38">
+        <f t="shared" ref="Q109:Q112" si="1">IF(H109&lt;0.0001,"&lt;0.0001",IF(H109&lt;0.001,"&lt;0.001",IF(H109&lt;0.01,"&lt;0.01",ROUND(H109,3))))</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2391,8 +2807,33 @@
       <c r="H110" s="22">
         <v>1.19113636321E-5</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J110" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="37">
+        <v>2.06442413445864</v>
+      </c>
+      <c r="M110" s="37">
+        <v>0.43365443768461098</v>
+      </c>
+      <c r="N110" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O110" s="37">
+        <v>0.84647045396479204</v>
+      </c>
+      <c r="P110" s="37">
+        <v>3.28237781495248</v>
+      </c>
+      <c r="Q110" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -2417,8 +2858,33 @@
       <c r="H111">
         <v>0.26235552181126198</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J111" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="37">
+        <v>0.75233624885049299</v>
+      </c>
+      <c r="M111" s="37">
+        <v>0.412594150640056</v>
+      </c>
+      <c r="N111" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O111" s="37">
+        <v>-0.40646790637819602</v>
+      </c>
+      <c r="P111" s="37">
+        <v>1.91114040407918</v>
+      </c>
+      <c r="Q111" s="38">
+        <f t="shared" si="1"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2443,8 +2909,33 @@
       <c r="H112" s="22">
         <v>2.3109746138505499E-5</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J112" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L112" s="37">
+        <v>1.95104424708336</v>
+      </c>
+      <c r="M112" s="37">
+        <v>0.42198293623330801</v>
+      </c>
+      <c r="N112" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O112" s="37">
+        <v>0.76587092559011605</v>
+      </c>
+      <c r="P112" s="37">
+        <v>3.13621756857661</v>
+      </c>
+      <c r="Q112" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>16</v>
       </c>
@@ -2469,40 +2960,89 @@
       <c r="H113" s="4">
         <v>7.8521659439585001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J113" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="44">
+        <v>1.1987079982328701</v>
+      </c>
+      <c r="M113" s="44">
+        <v>0.50088744345802405</v>
+      </c>
+      <c r="N113" s="43">
+        <v>4029</v>
+      </c>
+      <c r="O113" s="44">
+        <v>-0.20807503511991299</v>
+      </c>
+      <c r="P113" s="44">
+        <v>2.6054910315856499</v>
+      </c>
+      <c r="Q113" s="45">
+        <f>IF(H113&lt;0.0001,"&lt;0.0001",IF(H113&lt;0.001,"&lt;0.001",IF(H113&lt;0.01,"&lt;0.01",ROUND(H113,3))))</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="J120" s="33"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N120" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O120" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C121" s="5">
         <v>135698.070127788</v>
@@ -2516,8 +3056,27 @@
       <c r="F121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J121" s="33"/>
+      <c r="K121" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="36">
+        <v>135698.070127788</v>
+      </c>
+      <c r="M121" s="33">
+        <v>1</v>
+      </c>
+      <c r="N121" s="37">
+        <v>2798.20188080239</v>
+      </c>
+      <c r="O121" s="38" t="str">
+        <f t="shared" ref="O121:O127" si="2">IF(F121&lt;0.0001,"&lt;0.0001",IF(F121&lt;0.001,"&lt;0.001",IF(F121&lt;0.01,"&lt;0.01",ROUND(F121,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>2</v>
       </c>
@@ -2533,10 +3092,29 @@
       <c r="F122" s="19">
         <v>4.1045885631584203E-6</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J122" s="33"/>
+      <c r="K122" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L122" s="36">
+        <v>1350.05398575412</v>
+      </c>
+      <c r="M122" s="33">
+        <v>3</v>
+      </c>
+      <c r="N122" s="37">
+        <v>9.2797281458864393</v>
+      </c>
+      <c r="O122" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C123">
         <v>1128.5468895439999</v>
@@ -2550,10 +3128,29 @@
       <c r="F123" s="19">
         <v>1.45868048411455E-6</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J123" s="33"/>
+      <c r="K123" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" s="36">
+        <v>1128.5468895439999</v>
+      </c>
+      <c r="M123" s="33">
+        <v>1</v>
+      </c>
+      <c r="N123" s="37">
+        <v>23.2715323506213</v>
+      </c>
+      <c r="O123" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124">
         <v>1718.89440877119</v>
@@ -2567,10 +3164,29 @@
       <c r="F124" s="19">
         <v>2.8473154852789101E-9</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J124" s="33"/>
+      <c r="K124" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="36">
+        <v>1718.89440877119</v>
+      </c>
+      <c r="M124" s="33">
+        <v>1</v>
+      </c>
+      <c r="N124" s="37">
+        <v>35.444966630658698</v>
+      </c>
+      <c r="O124" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C125" s="25">
         <v>8.8032639973971492</v>
@@ -2584,10 +3200,29 @@
       <c r="F125" s="25">
         <v>0.67008417924574903</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J125" s="33"/>
+      <c r="K125" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L125" s="36">
+        <v>8.8032639973971492</v>
+      </c>
+      <c r="M125" s="33">
+        <v>1</v>
+      </c>
+      <c r="N125" s="37">
+        <v>0.18153028890918799</v>
+      </c>
+      <c r="O125" s="51">
+        <f t="shared" si="2"/>
+        <v>0.67</v>
+      </c>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C126">
         <v>568.13470219029102</v>
@@ -2601,10 +3236,29 @@
       <c r="F126">
         <v>6.26030598689127E-4</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J126" s="33"/>
+      <c r="K126" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L126" s="36">
+        <v>568.13470219029102</v>
+      </c>
+      <c r="M126" s="33">
+        <v>1</v>
+      </c>
+      <c r="N126" s="37">
+        <v>11.715388367136599</v>
+      </c>
+      <c r="O126" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C127" s="4">
         <v>532.416991618113</v>
@@ -2618,10 +3272,29 @@
       <c r="F127" s="4">
         <v>9.2970822173877199E-4</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J127" s="33"/>
+      <c r="K127" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L127" s="36">
+        <v>532.416991618113</v>
+      </c>
+      <c r="M127" s="33">
+        <v>1</v>
+      </c>
+      <c r="N127" s="37">
+        <v>10.9788608335696</v>
+      </c>
+      <c r="O127" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2">
         <v>195385.30378947599</v>
@@ -2630,341 +3303,647 @@
         <v>4029</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="33"/>
+      <c r="K128" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L128" s="39">
+        <v>195385.30378947599</v>
+      </c>
+      <c r="M128" s="34">
+        <v>4029</v>
+      </c>
+      <c r="N128" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J130" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K130" s="34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="L130" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M130" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="N130" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="O130" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="P130" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q130" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="7">
+        <v>29.835689344532199</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.16516385786479101</v>
+      </c>
+      <c r="E131">
+        <v>4029</v>
+      </c>
+      <c r="F131">
+        <v>29.371813246215201</v>
+      </c>
+      <c r="G131">
+        <v>30.2995654428492</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K131" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" s="37">
+        <v>29.835689344532199</v>
+      </c>
+      <c r="M131" s="37">
+        <v>0.16516385786479101</v>
+      </c>
+      <c r="N131" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O131" s="37">
+        <v>29.371813246215201</v>
+      </c>
+      <c r="P131" s="37">
+        <v>30.2995654428492</v>
+      </c>
+      <c r="Q131" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="7">
-        <v>29.835689344532199</v>
+        <v>29.701106182541398</v>
       </c>
       <c r="D132" s="7">
-        <v>0.16516385786479101</v>
+        <v>0.19866265007072501</v>
       </c>
       <c r="E132">
         <v>4029</v>
       </c>
       <c r="F132">
-        <v>29.371813246215201</v>
+        <v>29.1431460077944</v>
       </c>
       <c r="G132">
-        <v>30.2995654428492</v>
+        <v>30.259066357288301</v>
       </c>
       <c r="H132" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J132" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K132" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="37">
+        <v>29.701106182541398</v>
+      </c>
+      <c r="M132" s="37">
+        <v>0.19866265007072501</v>
+      </c>
+      <c r="N132" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O132" s="37">
+        <v>29.1431460077944</v>
+      </c>
+      <c r="P132" s="37">
+        <v>30.259066357288301</v>
+      </c>
+      <c r="Q132" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="7">
-        <v>29.701106182541398</v>
+        <v>28.916978783940898</v>
       </c>
       <c r="D133" s="7">
-        <v>0.19866265007072501</v>
+        <v>0.36691452133668201</v>
       </c>
       <c r="E133">
         <v>4029</v>
       </c>
       <c r="F133">
-        <v>29.1431460077944</v>
+        <v>27.886469574639001</v>
       </c>
       <c r="G133">
-        <v>30.259066357288301</v>
+        <v>29.947487993242898</v>
       </c>
       <c r="H133" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J133" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K133" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133" s="37">
+        <v>28.916978783940898</v>
+      </c>
+      <c r="M133" s="37">
+        <v>0.36691452133668201</v>
+      </c>
+      <c r="N133" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O133" s="37">
+        <v>27.886469574639001</v>
+      </c>
+      <c r="P133" s="37">
+        <v>29.947487993242898</v>
+      </c>
+      <c r="Q133" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="7">
-        <v>28.916978783940898</v>
+        <v>27.684260117670298</v>
       </c>
       <c r="D134" s="7">
-        <v>0.36691452133668201</v>
+        <v>0.37773994559609397</v>
       </c>
       <c r="E134">
         <v>4029</v>
       </c>
       <c r="F134">
-        <v>27.886469574639001</v>
+        <v>26.623346825822701</v>
       </c>
       <c r="G134">
-        <v>29.947487993242898</v>
+        <v>28.7451734095179</v>
       </c>
       <c r="H134" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="J134" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="7">
+      <c r="K134" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L134" s="37">
         <v>27.684260117670298</v>
       </c>
-      <c r="D135" s="7">
+      <c r="M134" s="37">
         <v>0.37773994559609397</v>
       </c>
-      <c r="E135">
+      <c r="N134" s="33">
         <v>4029</v>
       </c>
-      <c r="F135">
+      <c r="O134" s="37">
         <v>26.623346825822701</v>
       </c>
-      <c r="G135">
+      <c r="P134" s="37">
         <v>28.7451734095179</v>
       </c>
-      <c r="H135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="Q134" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C135" s="6">
         <v>0.134583161990806</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D135" s="6">
         <v>0.26272000665099199</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E135" s="5">
         <v>4029</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F135" s="5">
         <v>-0.60328729714342899</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G135" s="5">
         <v>0.87245362112504099</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H135" s="5">
         <v>0.95619103739274902</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J135" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="41">
+        <v>0.134583161990806</v>
+      </c>
+      <c r="M135" s="41">
+        <v>0.26272000665099199</v>
+      </c>
+      <c r="N135" s="40">
+        <v>4029</v>
+      </c>
+      <c r="O135" s="41">
+        <v>-0.60328729714342899</v>
+      </c>
+      <c r="P135" s="41">
+        <v>0.87245362112504099</v>
+      </c>
+      <c r="Q135" s="42">
+        <f>IF(H135&lt;0.0001,"&lt;0.0001",IF(H135&lt;0.001,"&lt;0.001",IF(H135&lt;0.01,"&lt;0.01",ROUND(H135,3))))</f>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0.91871056059127398</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0.41548027566217399</v>
+      </c>
+      <c r="E136">
+        <v>4029</v>
+      </c>
+      <c r="F136">
+        <v>-0.24819951097905801</v>
+      </c>
+      <c r="G136">
+        <v>2.0856206321616102</v>
+      </c>
+      <c r="H136">
+        <v>0.12031598076364799</v>
+      </c>
+      <c r="J136" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L136" s="37">
+        <v>0.91871056059127398</v>
+      </c>
+      <c r="M136" s="37">
+        <v>0.41548027566217399</v>
+      </c>
+      <c r="N136" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O136" s="37">
+        <v>-0.24819951097905801</v>
+      </c>
+      <c r="P136" s="37">
+        <v>2.0856206321616102</v>
+      </c>
+      <c r="Q136" s="51">
+        <f t="shared" ref="Q136:Q140" si="3">IF(H136&lt;0.0001,"&lt;0.0001",IF(H136&lt;0.001,"&lt;0.001",IF(H136&lt;0.01,"&lt;0.01",ROUND(H136,3))))</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="7">
-        <v>0.91871056059127398</v>
-      </c>
-      <c r="D137" s="7">
-        <v>0.41548027566217399</v>
-      </c>
-      <c r="E137">
+      <c r="B137" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="17">
+        <v>2.1514292268618598</v>
+      </c>
+      <c r="D137" s="17">
+        <v>0.43064337847734102</v>
+      </c>
+      <c r="E137" s="10">
         <v>4029</v>
       </c>
-      <c r="F137">
-        <v>-0.24819951097905801</v>
-      </c>
-      <c r="G137">
-        <v>2.0856206321616102</v>
-      </c>
-      <c r="H137">
-        <v>0.12031598076364799</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="10">
+        <v>0.94193235050741198</v>
+      </c>
+      <c r="G137" s="10">
+        <v>3.3609261032163</v>
+      </c>
+      <c r="H137" s="22">
+        <v>3.6688143882912502E-6</v>
+      </c>
+      <c r="J137" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L137" s="37">
+        <v>2.1514292268618598</v>
+      </c>
+      <c r="M137" s="37">
+        <v>0.43064337847734102</v>
+      </c>
+      <c r="N137" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O137" s="37">
+        <v>0.94193235050741198</v>
+      </c>
+      <c r="P137" s="37">
+        <v>3.3609261032163</v>
+      </c>
+      <c r="Q137" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="17">
-        <v>2.1514292268618598</v>
-      </c>
-      <c r="D138" s="17">
-        <v>0.43064337847734102</v>
-      </c>
-      <c r="E138" s="10">
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0.78412739860046798</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.412324697518134</v>
+      </c>
+      <c r="E138">
         <v>4029</v>
       </c>
-      <c r="F138" s="10">
-        <v>0.94193235050741198</v>
-      </c>
-      <c r="G138" s="10">
-        <v>3.3609261032163</v>
-      </c>
-      <c r="H138" s="22">
-        <v>3.6688143882912502E-6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>-0.37391997566843499</v>
+      </c>
+      <c r="G138">
+        <v>1.9421747728693699</v>
+      </c>
+      <c r="H138">
+        <v>0.22741063701004899</v>
+      </c>
+      <c r="J138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K138" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" s="37">
+        <v>0.78412739860046798</v>
+      </c>
+      <c r="M138" s="37">
+        <v>0.412324697518134</v>
+      </c>
+      <c r="N138" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O138" s="37">
+        <v>-0.37391997566843499</v>
+      </c>
+      <c r="P138" s="37">
+        <v>1.9421747728693699</v>
+      </c>
+      <c r="Q138" s="38">
+        <f t="shared" si="3"/>
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>16</v>
       </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="7">
-        <v>0.78412739860046798</v>
-      </c>
-      <c r="D139" s="7">
-        <v>0.412324697518134</v>
-      </c>
-      <c r="E139">
+      <c r="B139" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="17">
+        <v>2.01684606487105</v>
+      </c>
+      <c r="D139" s="17">
+        <v>0.42005912147871599</v>
+      </c>
+      <c r="E139" s="10">
         <v>4029</v>
       </c>
-      <c r="F139">
-        <v>-0.37391997566843499</v>
-      </c>
-      <c r="G139">
-        <v>1.9421747728693699</v>
-      </c>
-      <c r="H139">
-        <v>0.22741063701004899</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="10" t="s">
+      <c r="F139" s="10">
+        <v>0.83707593323896301</v>
+      </c>
+      <c r="G139" s="10">
+        <v>3.1966161965031401</v>
+      </c>
+      <c r="H139" s="22">
+        <v>9.7447760736279997E-6</v>
+      </c>
+      <c r="J139" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="17">
+      <c r="L139" s="37">
         <v>2.01684606487105</v>
       </c>
-      <c r="D140" s="17">
+      <c r="M139" s="37">
         <v>0.42005912147871599</v>
       </c>
-      <c r="E140" s="10">
+      <c r="N139" s="33">
         <v>4029</v>
       </c>
-      <c r="F140" s="10">
+      <c r="O139" s="37">
         <v>0.83707593323896301</v>
       </c>
-      <c r="G140" s="10">
+      <c r="P139" s="37">
         <v>3.1966161965031401</v>
       </c>
-      <c r="H140" s="22">
-        <v>9.7447760736279997E-6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="Q139" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C140" s="8">
         <v>1.23271866627058</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D140" s="8">
         <v>0.50058167916201701</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E140" s="4">
         <v>4029</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F140" s="4">
         <v>-0.17320560324324499</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G140" s="4">
         <v>2.6386429357844099</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H140" s="4">
         <v>6.6060523688213205E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J140" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" s="44">
+        <v>1.23271866627058</v>
+      </c>
+      <c r="M140" s="44">
+        <v>0.50058167916201701</v>
+      </c>
+      <c r="N140" s="43">
+        <v>4029</v>
+      </c>
+      <c r="O140" s="44">
+        <v>-0.17320560324324499</v>
+      </c>
+      <c r="P140" s="44">
+        <v>2.6386429357844099</v>
+      </c>
+      <c r="Q140" s="45">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>36</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>38</v>
       </c>
       <c r="C150">
         <v>209663.11143709501</v>
@@ -2978,8 +3957,24 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" s="3">
+        <v>209663.11143709501</v>
+      </c>
+      <c r="M150" s="46">
+        <v>1</v>
+      </c>
+      <c r="N150" s="18">
+        <v>4324.2979628871599</v>
+      </c>
+      <c r="O150" s="46" t="str">
+        <f t="shared" ref="O150:O155" si="4">IF(F150&lt;0.0001,"&lt;0.0001",IF(F150&lt;0.001,"&lt;0.001",IF(F150&lt;0.01,"&lt;0.01",ROUND(F150,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>2</v>
       </c>
@@ -2995,10 +3990,26 @@
       <c r="F151" s="19">
         <v>4.4655348400988801E-6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>2</v>
+      </c>
+      <c r="L151" s="3">
+        <v>1341.2627502274399</v>
+      </c>
+      <c r="M151" s="46">
+        <v>3</v>
+      </c>
+      <c r="N151" s="18">
+        <v>9.2211734955024607</v>
+      </c>
+      <c r="O151" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C152">
         <v>1120.79821401357</v>
@@ -3012,10 +4023,26 @@
       <c r="F152" s="19">
         <v>1.5804472494778E-6</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152" t="s">
+        <v>37</v>
+      </c>
+      <c r="L152" s="3">
+        <v>1120.79821401357</v>
+      </c>
+      <c r="M152" s="46">
+        <v>1</v>
+      </c>
+      <c r="N152" s="18">
+        <v>23.116443328757001</v>
+      </c>
+      <c r="O152" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C153">
         <v>1776.2242999795999</v>
@@ -3029,10 +4056,26 @@
       <c r="F153" s="19">
         <v>1.5546718618969799E-9</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>38</v>
+      </c>
+      <c r="L153" s="3">
+        <v>1776.2242999795999</v>
+      </c>
+      <c r="M153" s="46">
+        <v>1</v>
+      </c>
+      <c r="N153" s="18">
+        <v>36.634594752434403</v>
+      </c>
+      <c r="O153" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C154">
         <v>615.42158317624103</v>
@@ -3046,10 +4089,26 @@
       <c r="F154">
         <v>3.7126361327286802E-4</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154" t="s">
+        <v>44</v>
+      </c>
+      <c r="L154" s="3">
+        <v>615.42158317624103</v>
+      </c>
+      <c r="M154" s="46">
+        <v>1</v>
+      </c>
+      <c r="N154" s="18">
+        <v>12.693059261615799</v>
+      </c>
+      <c r="O154" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C155">
         <v>746.90527651924594</v>
@@ -3063,10 +4122,26 @@
       <c r="F155" s="19">
         <v>8.8210645710651802E-5</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155" t="s">
+        <v>51</v>
+      </c>
+      <c r="L155" s="3">
+        <v>746.90527651924594</v>
+      </c>
+      <c r="M155" s="46">
+        <v>1</v>
+      </c>
+      <c r="N155" s="18">
+        <v>15.4049081098889</v>
+      </c>
+      <c r="O155" s="46" t="str">
+        <f>IF(F155&lt;0.0001,"&lt;0.0001",IF(F155&lt;0.001,"&lt;0.001",IF(F155&lt;0.01,"&lt;0.01",ROUND(F155,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C156" s="2">
         <v>195394.107053474</v>
@@ -3075,306 +4150,591 @@
         <v>4030</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L156" s="47">
+        <v>195394.107053474</v>
+      </c>
+      <c r="M156" s="2">
+        <v>4030</v>
+      </c>
+      <c r="N156" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O156" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="H159" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>3</v>
       </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="7">
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="7">
         <v>29.833039894761601</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D160" s="7">
         <v>0.165029993120519</v>
-      </c>
-      <c r="E159">
-        <v>4030</v>
-      </c>
-      <c r="F159">
-        <v>29.3695398298408</v>
-      </c>
-      <c r="G159">
-        <v>30.296539959682399</v>
-      </c>
-      <c r="H159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="7">
-        <v>29.701989237987501</v>
-      </c>
-      <c r="D160" s="7">
-        <v>0.198631664864556</v>
       </c>
       <c r="E160">
         <v>4030</v>
       </c>
       <c r="F160">
-        <v>29.1441161640135</v>
+        <v>29.3695398298408</v>
       </c>
       <c r="G160">
-        <v>30.259862311961498</v>
+        <v>30.296539959682399</v>
       </c>
       <c r="H160" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J160" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K160" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="37">
+        <v>29.833039894761601</v>
+      </c>
+      <c r="M160" s="37">
+        <v>0.165029993120519</v>
+      </c>
+      <c r="N160" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O160" s="37">
+        <v>29.3695398298408</v>
+      </c>
+      <c r="P160" s="37">
+        <v>30.296539959682399</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" s="7">
-        <v>28.923320343383399</v>
+        <v>29.701989237987501</v>
       </c>
       <c r="D161" s="7">
-        <v>0.36657527711677601</v>
+        <v>0.198631664864556</v>
       </c>
       <c r="E161">
         <v>4030</v>
       </c>
       <c r="F161">
-        <v>27.8937640698283</v>
+        <v>29.1441161640135</v>
       </c>
       <c r="G161">
-        <v>29.9528766169385</v>
+        <v>30.259862311961498</v>
       </c>
       <c r="H161" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J161" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K161" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="37">
+        <v>29.701989237987501</v>
+      </c>
+      <c r="M161" s="37">
+        <v>0.198631664864556</v>
+      </c>
+      <c r="N161" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O161" s="37">
+        <v>29.1441161640135</v>
+      </c>
+      <c r="P161" s="37">
+        <v>30.259862311961498</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="7">
-        <v>27.695775047685299</v>
+        <v>28.923320343383399</v>
       </c>
       <c r="D162" s="7">
-        <v>0.37673361200355499</v>
+        <v>0.36657527711677601</v>
       </c>
       <c r="E162">
         <v>4030</v>
       </c>
       <c r="F162">
+        <v>27.8937640698283</v>
+      </c>
+      <c r="G162">
+        <v>29.9528766169385</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K162" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L162" s="37">
+        <v>28.923320343383399</v>
+      </c>
+      <c r="M162" s="37">
+        <v>0.36657527711677601</v>
+      </c>
+      <c r="N162" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O162" s="37">
+        <v>27.8937640698283</v>
+      </c>
+      <c r="P162" s="37">
+        <v>29.9528766169385</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="7">
+        <v>27.695775047685299</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.37673361200355499</v>
+      </c>
+      <c r="E163">
+        <v>4030</v>
+      </c>
+      <c r="F163">
         <v>26.637688270126102</v>
       </c>
-      <c r="G162">
+      <c r="G163">
         <v>28.7538618252444</v>
       </c>
-      <c r="H162" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B163" s="5" t="s">
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K163" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L163" s="37">
+        <v>27.695775047685299</v>
+      </c>
+      <c r="M163" s="37">
+        <v>0.37673361200355499</v>
+      </c>
+      <c r="N163" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O163" s="37">
+        <v>26.637688270126102</v>
+      </c>
+      <c r="P163" s="37">
+        <v>28.7538618252444</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C164" s="6">
         <v>0.13105065677410299</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D164" s="6">
         <v>0.262562481742945</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E164" s="5">
         <v>4030</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F164" s="5">
         <v>-0.60637728000553504</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G164" s="5">
         <v>0.86847859355374102</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H164" s="5">
         <v>0.95927959727759204</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="J164" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L164" s="41">
+        <v>0.13105065677410299</v>
+      </c>
+      <c r="M164" s="41">
+        <v>0.262562481742945</v>
+      </c>
+      <c r="N164" s="40">
+        <v>4030</v>
+      </c>
+      <c r="O164" s="41">
+        <v>-0.60637728000553504</v>
+      </c>
+      <c r="P164" s="41">
+        <v>0.86847859355374102</v>
+      </c>
+      <c r="Q164" s="49">
+        <f>IF(H164&lt;0.0001,"&lt;0.0001",IF(H164&lt;0.001,"&lt;0.001",IF(H164&lt;0.01,"&lt;0.01",ROUND(H164,3))))</f>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C165" s="7">
         <v>0.90971955137817895</v>
       </c>
-      <c r="D164" s="7">
+      <c r="D165" s="7">
         <v>0.41490188662252098</v>
       </c>
-      <c r="E164">
+      <c r="E165">
         <v>4030</v>
       </c>
-      <c r="F164">
+      <c r="F165">
         <v>-0.25556590824650299</v>
       </c>
-      <c r="G164">
+      <c r="G165">
         <v>2.0750050110028599</v>
       </c>
-      <c r="H164">
+      <c r="H165">
         <v>0.12540499163844401</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="J165" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L165" s="37">
+        <v>0.90971955137817895</v>
+      </c>
+      <c r="M165" s="37">
+        <v>0.41490188662252098</v>
+      </c>
+      <c r="N165" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O165" s="37">
+        <v>-0.25556590824650299</v>
+      </c>
+      <c r="P165" s="37">
+        <v>2.0750050110028599</v>
+      </c>
+      <c r="Q165" s="46">
+        <f t="shared" ref="Q165:Q169" si="5">IF(H165&lt;0.0001,"&lt;0.0001",IF(H165&lt;0.001,"&lt;0.001",IF(H165&lt;0.01,"&lt;0.01",ROUND(H165,3))))</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="17">
+      <c r="C166" s="17">
         <v>2.13726484707635</v>
       </c>
-      <c r="D165" s="17">
+      <c r="D166" s="17">
         <v>0.42931464708601302</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E166" s="10">
         <v>4030</v>
       </c>
-      <c r="F165" s="10">
+      <c r="F166" s="10">
         <v>0.93149998559143699</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G166" s="10">
         <v>3.3430297085612599</v>
       </c>
-      <c r="H165" s="22">
+      <c r="H166" s="22">
         <v>4.0116384294464103E-6</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>16</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="J166" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L166" s="37">
+        <v>2.13726484707635</v>
+      </c>
+      <c r="M166" s="37">
+        <v>0.42931464708601302</v>
+      </c>
+      <c r="N166" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O166" s="37">
+        <v>0.93149998559143699</v>
+      </c>
+      <c r="P166" s="37">
+        <v>3.3430297085612599</v>
+      </c>
+      <c r="Q166" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
         <v>20</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C167" s="7">
         <v>0.77866889460407496</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D167" s="7">
         <v>0.41208376245550199</v>
       </c>
-      <c r="E166">
+      <c r="E167">
         <v>4030</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>-0.37870163568158599</v>
       </c>
-      <c r="G166">
+      <c r="G167">
         <v>1.9360394248897399</v>
       </c>
-      <c r="H166">
+      <c r="H167">
         <v>0.23261728141464599</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="10" t="s">
+      <c r="J167" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L167" s="37">
+        <v>0.77866889460407496</v>
+      </c>
+      <c r="M167" s="37">
+        <v>0.41208376245550199</v>
+      </c>
+      <c r="N167" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O167" s="37">
+        <v>-0.37870163568158599</v>
+      </c>
+      <c r="P167" s="37">
+        <v>1.9360394248897399</v>
+      </c>
+      <c r="Q167" s="46">
+        <f t="shared" si="5"/>
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C168" s="17">
         <v>2.0062141903022499</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D168" s="17">
         <v>0.41927469272607698</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E168" s="10">
         <v>4030</v>
       </c>
-      <c r="F167" s="10">
+      <c r="F168" s="10">
         <v>0.82864735155029201</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G168" s="10">
         <v>3.1837810290542001</v>
       </c>
-      <c r="H167" s="22">
+      <c r="H168" s="22">
         <v>1.0564120906719801E-5</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" s="30" t="s">
+      <c r="J168" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L168" s="37">
+        <v>2.0062141903022499</v>
+      </c>
+      <c r="M168" s="37">
+        <v>0.41927469272607698</v>
+      </c>
+      <c r="N168" s="33">
+        <v>4030</v>
+      </c>
+      <c r="O168" s="37">
+        <v>0.82864735155029201</v>
+      </c>
+      <c r="P168" s="37">
+        <v>3.1837810290542001</v>
+      </c>
+      <c r="Q168" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C168" s="31">
+      <c r="C169" s="31">
         <v>1.2275452956981701</v>
       </c>
-      <c r="D168" s="31">
+      <c r="D169" s="31">
         <v>0.50038357442089398</v>
       </c>
-      <c r="E168" s="30">
+      <c r="E169" s="30">
         <v>4030</v>
       </c>
-      <c r="F168" s="30">
+      <c r="F169" s="30">
         <v>-0.177822388344657</v>
       </c>
-      <c r="G168" s="30">
+      <c r="G169" s="30">
         <v>2.632912979741</v>
       </c>
-      <c r="H168" s="30">
+      <c r="H169" s="30">
         <v>6.7640428055344107E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J169" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" s="44">
+        <v>1.2275452956981701</v>
+      </c>
+      <c r="M169" s="44">
+        <v>0.50038357442089398</v>
+      </c>
+      <c r="N169" s="43">
+        <v>4030</v>
+      </c>
+      <c r="O169" s="44">
+        <v>-0.177822388344657</v>
+      </c>
+      <c r="P169" s="44">
+        <v>2.632912979741</v>
+      </c>
+      <c r="Q169" s="50">
+        <f t="shared" si="5"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/eg_data/NHANES/PF/20_BMI.xlsx
+++ b/eg_data/NHANES/PF/20_BMI.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE0321-28DB-453E-A66E-476703B3152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C188C9-47F1-4426-A1FB-997A5057AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="-3360" windowWidth="18240" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="62">
   <si>
     <t>With Gender &amp; Age</t>
   </si>
@@ -409,6 +412,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDCBCB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -418,6 +426,1046 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.217186428229593"/>
+          <c:y val="6.7276620684465105E-2"/>
+          <c:w val="0.74713790216847809"/>
+          <c:h val="0.76845122306270808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FDCBCB"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$160:$D$163</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.165029993120519</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.198631664864556</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36657527711677601</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.37673361200355499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$160:$D$163</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.165029993120519</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.198631664864556</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36657527711677601</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.37673361200355499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$150:$S$153</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DivNA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Div0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Div1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Div2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$150:$T$153</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.833039894761601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.701989237987501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.923320343383399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.695775047685299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-503C-48A4-9927-02EDC1D3386F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="149"/>
+        <c:overlap val="-45"/>
+        <c:axId val="477875424"/>
+        <c:axId val="477873624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477875424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477873624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477873624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477875424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D535927-A1F8-4FFC-A1B7-6297A959B02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>2.55373E-7</cdr:x>
+      <cdr:y>0.01167</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1</cdr:x>
+      <cdr:y>0.89883</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855F7DC9-3DD0-48DB-EA7D-4FA42F8645E7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1010712" y="1042454"/>
+          <a:ext cx="2413009" cy="391583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>BMI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Waist"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="185">
+          <cell r="T185" t="str">
+            <v>Waist</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="D186">
+            <v>0.38875277517771301</v>
+          </cell>
+          <cell r="S186" t="str">
+            <v>DivNA</v>
+          </cell>
+          <cell r="T186">
+            <v>101.209878392053</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="D187">
+            <v>0.46790652713579101</v>
+          </cell>
+          <cell r="S187" t="str">
+            <v>Div0</v>
+          </cell>
+          <cell r="T187">
+            <v>100.482176745179</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="D188">
+            <v>0.86352276695918195</v>
+          </cell>
+          <cell r="S188" t="str">
+            <v>Div1</v>
+          </cell>
+          <cell r="T188">
+            <v>99.029510455848794</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="D189">
+            <v>0.88745224064907202</v>
+          </cell>
+          <cell r="S189" t="str">
+            <v>Div2</v>
+          </cell>
+          <cell r="T189">
+            <v>95.9339848387296</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q172"/>
+  <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J143" sqref="J143"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,22 +4946,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
         <v>32</v>
@@ -3940,8 +4988,14 @@
       <c r="O149" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>36</v>
       </c>
@@ -3970,11 +5024,17 @@
         <v>4324.2979628871599</v>
       </c>
       <c r="O150" s="46" t="str">
-        <f t="shared" ref="O150:O155" si="4">IF(F150&lt;0.0001,"&lt;0.0001",IF(F150&lt;0.001,"&lt;0.001",IF(F150&lt;0.01,"&lt;0.01",ROUND(F150,3))))</f>
+        <f t="shared" ref="O150:O154" si="4">IF(F150&lt;0.0001,"&lt;0.0001",IF(F150&lt;0.001,"&lt;0.001",IF(F150&lt;0.01,"&lt;0.01",ROUND(F150,3))))</f>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S150" t="s">
+        <v>3</v>
+      </c>
+      <c r="T150" s="3">
+        <v>29.833039894761601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>2</v>
       </c>
@@ -4006,8 +5066,14 @@
         <f t="shared" si="4"/>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S151" t="s">
+        <v>4</v>
+      </c>
+      <c r="T151" s="3">
+        <v>29.701989237987501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>37</v>
       </c>
@@ -4039,8 +5105,14 @@
         <f t="shared" si="4"/>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S152" t="s">
+        <v>5</v>
+      </c>
+      <c r="T152" s="3">
+        <v>28.923320343383399</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>38</v>
       </c>
@@ -4072,8 +5144,14 @@
         <f t="shared" si="4"/>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S153" t="s">
+        <v>6</v>
+      </c>
+      <c r="T153" s="3">
+        <v>27.695775047685299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>44</v>
       </c>
@@ -4106,7 +5184,7 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>51</v>
       </c>
@@ -4139,7 +5217,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>40</v>
       </c>
@@ -4171,7 +5249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>2</v>
       </c>
@@ -4221,7 +5299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -4740,5 +5818,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>